--- a/func.xlsx
+++ b/func.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bened\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D53BA006-BEC1-4AEF-8D0E-8390A93BE1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E39823-20B1-43AC-AAFA-FA77194DE4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13335" xr2:uid="{DE8A2031-3578-440C-BBD4-845D07DE2C02}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$H$132</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -950,8 +953,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1289,10 +1293,20 @@
   <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
+      <selection activeCell="F62" sqref="F62:F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.9296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -1339,7 +1353,7 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>45995</v>
       </c>
       <c r="H2" t="s">
@@ -1365,7 +1379,7 @@
       <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>45590</v>
       </c>
       <c r="H3" t="s">
@@ -1391,7 +1405,7 @@
       <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>45229</v>
       </c>
       <c r="H4" t="s">
@@ -1417,7 +1431,7 @@
       <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>45964</v>
       </c>
       <c r="H5" t="s">
@@ -1443,7 +1457,7 @@
       <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>45432</v>
       </c>
       <c r="H6" t="s">
@@ -1469,7 +1483,7 @@
       <c r="F7" t="s">
         <v>26</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>45784</v>
       </c>
       <c r="H7" t="s">
@@ -1495,7 +1509,7 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>45427</v>
       </c>
       <c r="H8" t="s">
@@ -1521,7 +1535,7 @@
       <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>45218</v>
       </c>
       <c r="H9" t="s">
@@ -1547,7 +1561,7 @@
       <c r="F10" t="s">
         <v>16</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>42095</v>
       </c>
       <c r="H10" t="s">
@@ -1573,7 +1587,7 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>43637</v>
       </c>
       <c r="H11" t="s">
@@ -1599,7 +1613,7 @@
       <c r="F12" t="s">
         <v>16</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>45915</v>
       </c>
       <c r="H12" t="s">
@@ -1625,7 +1639,7 @@
       <c r="F13" t="s">
         <v>16</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>45453</v>
       </c>
       <c r="H13" t="s">
@@ -1651,7 +1665,7 @@
       <c r="F14" t="s">
         <v>16</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>45840</v>
       </c>
       <c r="H14" t="s">
@@ -1677,7 +1691,7 @@
       <c r="F15" t="s">
         <v>16</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>44714</v>
       </c>
       <c r="H15" t="s">
@@ -1703,7 +1717,7 @@
       <c r="F16" t="s">
         <v>16</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>44368</v>
       </c>
       <c r="H16" t="s">
@@ -1729,7 +1743,7 @@
       <c r="F17" t="s">
         <v>26</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>45919</v>
       </c>
       <c r="H17" t="s">
@@ -1755,7 +1769,7 @@
       <c r="F18" t="s">
         <v>16</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>41985</v>
       </c>
       <c r="H18" t="s">
@@ -1781,7 +1795,7 @@
       <c r="F19" t="s">
         <v>16</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>45544</v>
       </c>
       <c r="H19" t="s">
@@ -1807,7 +1821,7 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>45170</v>
       </c>
       <c r="H20" t="s">
@@ -1833,7 +1847,7 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>43634</v>
       </c>
       <c r="H21" t="s">
@@ -1859,7 +1873,7 @@
       <c r="F22" t="s">
         <v>16</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>42376</v>
       </c>
       <c r="H22" t="s">
@@ -1885,7 +1899,7 @@
       <c r="F23" t="s">
         <v>16</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>45615</v>
       </c>
       <c r="H23" t="s">
@@ -1911,7 +1925,7 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>45282</v>
       </c>
       <c r="H24" t="s">
@@ -1937,7 +1951,7 @@
       <c r="F25" t="s">
         <v>16</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>44861</v>
       </c>
       <c r="H25" t="s">
@@ -1963,7 +1977,7 @@
       <c r="F26" t="s">
         <v>16</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>42083</v>
       </c>
       <c r="H26" t="s">
@@ -1989,7 +2003,7 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>43634</v>
       </c>
       <c r="H27" t="s">
@@ -2015,7 +2029,7 @@
       <c r="F28" t="s">
         <v>16</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>42738</v>
       </c>
       <c r="H28" t="s">
@@ -2041,7 +2055,7 @@
       <c r="F29" t="s">
         <v>16</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>41395</v>
       </c>
       <c r="H29" t="s">
@@ -2067,7 +2081,7 @@
       <c r="F30" t="s">
         <v>78</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>44858</v>
       </c>
       <c r="H30" t="s">
@@ -2093,7 +2107,7 @@
       <c r="F31" t="s">
         <v>16</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>45870</v>
       </c>
       <c r="H31" t="s">
@@ -2119,7 +2133,7 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>45999</v>
       </c>
       <c r="H32" t="s">
@@ -2145,7 +2159,7 @@
       <c r="F33" t="s">
         <v>16</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>45259</v>
       </c>
       <c r="H33" t="s">
@@ -2171,7 +2185,7 @@
       <c r="F34" t="s">
         <v>87</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <v>45584</v>
       </c>
       <c r="H34" t="s">
@@ -2197,7 +2211,7 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
         <v>43880</v>
       </c>
       <c r="H35" t="s">
@@ -2223,7 +2237,7 @@
       <c r="F36" t="s">
         <v>16</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <v>45356</v>
       </c>
       <c r="H36" t="s">
@@ -2249,7 +2263,7 @@
       <c r="F37" t="s">
         <v>16</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1">
         <v>42907</v>
       </c>
       <c r="H37" t="s">
@@ -2275,7 +2289,7 @@
       <c r="F38" t="s">
         <v>16</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1">
         <v>41836</v>
       </c>
       <c r="H38" t="s">
@@ -2301,7 +2315,7 @@
       <c r="F39" t="s">
         <v>16</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="1">
         <v>45916</v>
       </c>
       <c r="H39" t="s">
@@ -2327,7 +2341,7 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="1">
         <v>45042</v>
       </c>
       <c r="H40" t="s">
@@ -2353,7 +2367,7 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="1">
         <v>45467</v>
       </c>
       <c r="H41" t="s">
@@ -2379,7 +2393,7 @@
       <c r="F42" t="s">
         <v>16</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="1">
         <v>45915</v>
       </c>
       <c r="H42" t="s">
@@ -2405,7 +2419,7 @@
       <c r="F43" t="s">
         <v>16</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="1">
         <v>42160</v>
       </c>
       <c r="H43" t="s">
@@ -2431,7 +2445,7 @@
       <c r="F44" t="s">
         <v>16</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="1">
         <v>45513</v>
       </c>
       <c r="H44" t="s">
@@ -2457,7 +2471,7 @@
       <c r="F45" t="s">
         <v>16</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="1">
         <v>44160</v>
       </c>
       <c r="H45" t="s">
@@ -2483,7 +2497,7 @@
       <c r="F46" t="s">
         <v>16</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="1">
         <v>41481</v>
       </c>
       <c r="H46" t="s">
@@ -2509,7 +2523,7 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="1">
         <v>44390</v>
       </c>
       <c r="H47" t="s">
@@ -2535,7 +2549,7 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="1">
         <v>45870</v>
       </c>
       <c r="H48" t="s">
@@ -2561,7 +2575,7 @@
       <c r="F49" t="s">
         <v>16</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="1">
         <v>43472</v>
       </c>
       <c r="H49" t="s">
@@ -2587,7 +2601,7 @@
       <c r="F50" t="s">
         <v>16</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="1">
         <v>45439</v>
       </c>
       <c r="H50" t="s">
@@ -2613,7 +2627,7 @@
       <c r="F51" t="s">
         <v>16</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="1">
         <v>41253</v>
       </c>
       <c r="H51" t="s">
@@ -2639,7 +2653,7 @@
       <c r="F52" t="s">
         <v>78</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="1">
         <v>45810</v>
       </c>
       <c r="H52" t="s">
@@ -2665,7 +2679,7 @@
       <c r="F53" t="s">
         <v>16</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="1">
         <v>45297</v>
       </c>
       <c r="H53" t="s">
@@ -2691,7 +2705,7 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="1">
         <v>43995</v>
       </c>
       <c r="H54" t="s">
@@ -2717,7 +2731,7 @@
       <c r="F55" t="s">
         <v>16</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="1">
         <v>41806</v>
       </c>
       <c r="H55" t="s">
@@ -2743,7 +2757,7 @@
       <c r="F56" t="s">
         <v>16</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="1">
         <v>45839</v>
       </c>
       <c r="H56" t="s">
@@ -2769,7 +2783,7 @@
       <c r="F57" t="s">
         <v>16</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="1">
         <v>45274</v>
       </c>
       <c r="H57" t="s">
@@ -2795,7 +2809,7 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="1">
         <v>45898</v>
       </c>
       <c r="H58" t="s">
@@ -2821,7 +2835,7 @@
       <c r="F59" t="s">
         <v>16</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="1">
         <v>45790</v>
       </c>
       <c r="H59" t="s">
@@ -2847,7 +2861,7 @@
       <c r="F60" t="s">
         <v>16</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="1">
         <v>41956</v>
       </c>
       <c r="H60" t="s">
@@ -2873,7 +2887,7 @@
       <c r="F61" t="s">
         <v>16</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="1">
         <v>44803</v>
       </c>
       <c r="H61" t="s">
@@ -2899,7 +2913,7 @@
       <c r="F62" t="s">
         <v>16</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="1">
         <v>45537</v>
       </c>
       <c r="H62" t="s">
@@ -2923,9 +2937,9 @@
         <v>15</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63">
+        <v>16</v>
+      </c>
+      <c r="G63" s="1">
         <v>45952</v>
       </c>
       <c r="H63" t="s">
@@ -2951,7 +2965,7 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="1">
         <v>45418</v>
       </c>
       <c r="H64" t="s">
@@ -2977,7 +2991,7 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="1">
         <v>46002</v>
       </c>
       <c r="H65" t="s">
@@ -3003,7 +3017,7 @@
       <c r="F66" t="s">
         <v>16</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="1">
         <v>45337</v>
       </c>
       <c r="H66" t="s">
@@ -3029,7 +3043,7 @@
       <c r="F67" t="s">
         <v>16</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="1">
         <v>45965</v>
       </c>
       <c r="H67" t="s">
@@ -3055,7 +3069,7 @@
       <c r="F68" t="s">
         <v>160</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="1">
         <v>45512</v>
       </c>
       <c r="H68" t="s">
@@ -3081,7 +3095,7 @@
       <c r="F69" t="s">
         <v>16</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="1">
         <v>44089</v>
       </c>
       <c r="H69" t="s">
@@ -3107,7 +3121,7 @@
       <c r="F70" t="s">
         <v>16</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="1">
         <v>44966</v>
       </c>
       <c r="H70" t="s">
@@ -3133,7 +3147,7 @@
       <c r="F71" t="s">
         <v>16</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="1">
         <v>43256</v>
       </c>
       <c r="H71" t="s">
@@ -3159,7 +3173,7 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="1">
         <v>45474</v>
       </c>
       <c r="H72" t="s">
@@ -3185,7 +3199,7 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="1">
         <v>44708</v>
       </c>
       <c r="H73" t="s">
@@ -3211,7 +3225,7 @@
       <c r="F74" t="s">
         <v>16</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="1">
         <v>45748</v>
       </c>
       <c r="H74" t="s">
@@ -3237,7 +3251,7 @@
       <c r="F75" t="s">
         <v>78</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="1">
         <v>45789</v>
       </c>
       <c r="H75" t="s">
@@ -3263,7 +3277,7 @@
       <c r="F76" t="s">
         <v>16</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="1">
         <v>44623</v>
       </c>
       <c r="H76" t="s">
@@ -3289,7 +3303,7 @@
       <c r="F77" t="s">
         <v>16</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="1">
         <v>44567</v>
       </c>
       <c r="H77" t="s">
@@ -3315,7 +3329,7 @@
       <c r="F78" t="s">
         <v>16</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="1">
         <v>42590</v>
       </c>
       <c r="H78" t="s">
@@ -3341,7 +3355,7 @@
       <c r="F79" t="s">
         <v>16</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="1">
         <v>40375</v>
       </c>
       <c r="H79" t="s">
@@ -3367,7 +3381,7 @@
       <c r="F80" t="s">
         <v>26</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="1">
         <v>45002</v>
       </c>
       <c r="H80" t="s">
@@ -3393,7 +3407,7 @@
       <c r="F81" t="s">
         <v>16</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="1">
         <v>41643</v>
       </c>
       <c r="H81" t="s">
@@ -3419,7 +3433,7 @@
       <c r="F82" t="s">
         <v>16</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="1">
         <v>45173</v>
       </c>
       <c r="H82" t="s">
@@ -3445,7 +3459,7 @@
       <c r="F83" t="s">
         <v>16</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="1">
         <v>45818</v>
       </c>
       <c r="H83" t="s">
@@ -3471,7 +3485,7 @@
       <c r="F84" t="s">
         <v>16</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="1">
         <v>44657</v>
       </c>
       <c r="H84" t="s">
@@ -3497,7 +3511,7 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="1">
         <v>45610</v>
       </c>
       <c r="H85" t="s">
@@ -3523,7 +3537,7 @@
       <c r="F86" t="s">
         <v>16</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="1">
         <v>42816</v>
       </c>
       <c r="H86" t="s">
@@ -3549,7 +3563,7 @@
       <c r="F87" t="s">
         <v>16</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="1">
         <v>45861</v>
       </c>
       <c r="H87" t="s">
@@ -3575,7 +3589,7 @@
       <c r="F88" t="s">
         <v>16</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="1">
         <v>44665</v>
       </c>
       <c r="H88" t="s">
@@ -3601,7 +3615,7 @@
       <c r="F89" t="s">
         <v>16</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="1">
         <v>42100</v>
       </c>
       <c r="H89" t="s">
@@ -3627,7 +3641,7 @@
       <c r="F90" t="s">
         <v>16</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="1">
         <v>39247</v>
       </c>
       <c r="H90" t="s">
@@ -3653,7 +3667,7 @@
       <c r="F91" t="s">
         <v>16</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="1">
         <v>44826</v>
       </c>
       <c r="H91" t="s">
@@ -3679,7 +3693,7 @@
       <c r="F92" t="s">
         <v>16</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="1">
         <v>45954</v>
       </c>
       <c r="H92" t="s">
@@ -3705,7 +3719,7 @@
       <c r="F93" t="s">
         <v>16</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="1">
         <v>45971</v>
       </c>
       <c r="H93" t="s">
@@ -3731,7 +3745,7 @@
       <c r="F94" t="s">
         <v>16</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="1">
         <v>41911</v>
       </c>
       <c r="H94" t="s">
@@ -3757,7 +3771,7 @@
       <c r="F95" t="s">
         <v>16</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="1">
         <v>45673</v>
       </c>
       <c r="H95" t="s">
@@ -3783,7 +3797,7 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="1">
         <v>45957</v>
       </c>
       <c r="H96" t="s">
@@ -3809,7 +3823,7 @@
       <c r="F97" t="s">
         <v>78</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="1">
         <v>44655</v>
       </c>
       <c r="H97" t="s">
@@ -3835,7 +3849,7 @@
       <c r="F98" t="s">
         <v>16</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="1">
         <v>45978</v>
       </c>
       <c r="H98" t="s">
@@ -3861,7 +3875,7 @@
       <c r="F99" t="s">
         <v>16</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="1">
         <v>45962</v>
       </c>
       <c r="H99" t="s">
@@ -3887,7 +3901,7 @@
       <c r="F100" t="s">
         <v>16</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="1">
         <v>45288</v>
       </c>
       <c r="H100" t="s">
@@ -3913,7 +3927,7 @@
       <c r="F101" t="s">
         <v>16</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="1">
         <v>45477</v>
       </c>
       <c r="H101" t="s">
@@ -3939,7 +3953,7 @@
       <c r="F102" t="s">
         <v>16</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="1">
         <v>36647</v>
       </c>
       <c r="H102" t="s">
@@ -3965,7 +3979,7 @@
       <c r="F103" t="s">
         <v>16</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="1">
         <v>45937</v>
       </c>
       <c r="H103" t="s">
@@ -3991,7 +4005,7 @@
       <c r="F104" t="s">
         <v>16</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="1">
         <v>45678</v>
       </c>
       <c r="H104" t="s">
@@ -4017,7 +4031,7 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="1">
         <v>45685</v>
       </c>
       <c r="H105" t="s">
@@ -4043,7 +4057,7 @@
       <c r="F106" t="s">
         <v>16</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="1">
         <v>42031</v>
       </c>
       <c r="H106" t="s">
@@ -4069,7 +4083,7 @@
       <c r="F107" t="s">
         <v>16</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="1">
         <v>39676</v>
       </c>
       <c r="H107" t="s">
@@ -4095,7 +4109,7 @@
       <c r="F108" t="s">
         <v>16</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="1">
         <v>45819</v>
       </c>
       <c r="H108" t="s">
@@ -4121,7 +4135,7 @@
       <c r="F109" t="s">
         <v>16</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="1">
         <v>43691</v>
       </c>
       <c r="H109" t="s">
@@ -4147,7 +4161,7 @@
       <c r="F110" t="s">
         <v>16</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="1">
         <v>43139</v>
       </c>
       <c r="H110" t="s">
@@ -4173,7 +4187,7 @@
       <c r="F111" t="s">
         <v>16</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="1">
         <v>45964</v>
       </c>
       <c r="H111" t="s">
@@ -4199,7 +4213,7 @@
       <c r="F112" t="s">
         <v>16</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="1">
         <v>45485</v>
       </c>
       <c r="H112" t="s">
@@ -4225,7 +4239,7 @@
       <c r="F113" t="s">
         <v>16</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="1">
         <v>44851</v>
       </c>
       <c r="H113" t="s">
@@ -4251,7 +4265,7 @@
       <c r="F114" t="s">
         <v>16</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="1">
         <v>45457</v>
       </c>
       <c r="H114" t="s">
@@ -4277,7 +4291,7 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="1">
         <v>43542</v>
       </c>
       <c r="H115" t="s">
@@ -4303,7 +4317,7 @@
       <c r="F116" t="s">
         <v>26</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="1">
         <v>44615</v>
       </c>
       <c r="H116" t="s">
@@ -4329,7 +4343,7 @@
       <c r="F117" t="s">
         <v>16</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="1">
         <v>45971</v>
       </c>
       <c r="H117" t="s">
@@ -4355,7 +4369,7 @@
       <c r="F118" t="s">
         <v>16</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="1">
         <v>45016</v>
       </c>
       <c r="H118" t="s">
@@ -4381,7 +4395,7 @@
       <c r="F119" t="s">
         <v>16</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="1">
         <v>45505</v>
       </c>
       <c r="H119" t="s">
@@ -4407,7 +4421,7 @@
       <c r="F120" t="s">
         <v>16</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="1">
         <v>44420</v>
       </c>
       <c r="H120" t="s">
@@ -4433,7 +4447,7 @@
       <c r="F121" t="s">
         <v>16</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="1">
         <v>45364</v>
       </c>
       <c r="H121" t="s">
@@ -4459,7 +4473,7 @@
       <c r="F122" t="s">
         <v>16</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="1">
         <v>45779</v>
       </c>
       <c r="H122" t="s">
@@ -4485,7 +4499,7 @@
       <c r="F123" t="s">
         <v>26</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="1">
         <v>44824</v>
       </c>
       <c r="H123" t="s">
@@ -4511,7 +4525,7 @@
       <c r="F124" t="s">
         <v>16</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="1">
         <v>44858</v>
       </c>
       <c r="H124" t="s">
@@ -4537,7 +4551,7 @@
       <c r="F125" t="s">
         <v>16</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="1">
         <v>41548</v>
       </c>
       <c r="H125" t="s">
@@ -4563,7 +4577,7 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="1">
         <v>45100</v>
       </c>
       <c r="H126" t="s">
@@ -4589,7 +4603,7 @@
       <c r="F127" t="s">
         <v>16</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="1">
         <v>41786</v>
       </c>
       <c r="H127" t="s">
@@ -4615,7 +4629,7 @@
       <c r="F128" t="s">
         <v>16</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="1">
         <v>44229</v>
       </c>
       <c r="H128" t="s">
@@ -4641,7 +4655,7 @@
       <c r="F129" t="s">
         <v>16</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="1">
         <v>44711</v>
       </c>
       <c r="H129" t="s">
@@ -4667,7 +4681,7 @@
       <c r="F130" t="s">
         <v>16</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="1">
         <v>45839</v>
       </c>
       <c r="H130" t="s">
@@ -4693,7 +4707,7 @@
       <c r="F131" t="s">
         <v>16</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="1">
         <v>45950</v>
       </c>
       <c r="H131" t="s">
@@ -4719,7 +4733,7 @@
       <c r="F132" t="s">
         <v>16</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="1">
         <v>45792</v>
       </c>
       <c r="H132" t="s">
@@ -4727,6 +4741,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H132" xr:uid="{AE6EC4D0-50B4-44E0-9E41-1F6617FA6B7E}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/func.xlsx
+++ b/func.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bened\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E39823-20B1-43AC-AAFA-FA77194DE4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F19B90-41AF-45D2-A7FA-C59CEB35E9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13335" xr2:uid="{DE8A2031-3578-440C-BBD4-845D07DE2C02}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="324">
   <si>
     <t>cpf</t>
   </si>
@@ -65,12 +65,6 @@
     <t>Data de Desligamento</t>
   </si>
   <si>
-    <t>ANA PAULA DA SILVA</t>
-  </si>
-  <si>
-    <t>55770559896</t>
-  </si>
-  <si>
     <t>AUXILIAR DE SERVIÇOS GERAIS INTERMITENTE</t>
   </si>
   <si>
@@ -173,12 +167,6 @@
     <t>PORTEIRO</t>
   </si>
   <si>
-    <t>BRUNO SANTOS CARVALHO DA SILVA</t>
-  </si>
-  <si>
-    <t>405375827</t>
-  </si>
-  <si>
     <t>CARLOS ALBERTO DO NASCIMENTO</t>
   </si>
   <si>
@@ -269,21 +257,9 @@
     <t>234173105</t>
   </si>
   <si>
-    <t>MARIA ELIZANGELLA MATEUS DE BRITO CARDOSO</t>
-  </si>
-  <si>
-    <t>96029021612</t>
-  </si>
-  <si>
     <t>SIEMACO AMERICANA</t>
   </si>
   <si>
-    <t>ELLEN PAULA DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>410169018</t>
-  </si>
-  <si>
     <t>ELMA FRANCISCO DA SILVA</t>
   </si>
   <si>
@@ -293,9 +269,6 @@
     <t>ERIENE OLIVEIRA DE SOUZA</t>
   </si>
   <si>
-    <t>707840864</t>
-  </si>
-  <si>
     <t>EVANIRA MENDONCA PIRES</t>
   </si>
   <si>
@@ -332,9 +305,6 @@
     <t>FRANCISCA ROSILDA DE SOUSA GOMES</t>
   </si>
   <si>
-    <t>3649141140</t>
-  </si>
-  <si>
     <t>GIOVANE FERNANDO DA SILVA ARAUJO</t>
   </si>
   <si>
@@ -353,9 +323,6 @@
     <t>GISLEINE RIBEIRO DA SILVA</t>
   </si>
   <si>
-    <t>9118520693</t>
-  </si>
-  <si>
     <t>GUIOMAR APOSTOLO QUARESMA</t>
   </si>
   <si>
@@ -509,12 +476,6 @@
     <t>394116422</t>
   </si>
   <si>
-    <t>ROSY KELLY CORDEIRO</t>
-  </si>
-  <si>
-    <t>343243313</t>
-  </si>
-  <si>
     <t>KELI CRISTINA NEVES DA SILVA</t>
   </si>
   <si>
@@ -542,12 +503,6 @@
     <t>43788692X</t>
   </si>
   <si>
-    <t>LETICIA SILVA GALVAO</t>
-  </si>
-  <si>
-    <t>448972992</t>
-  </si>
-  <si>
     <t>LETICIA THOMAZ DOS SANTOS</t>
   </si>
   <si>
@@ -590,12 +545,6 @@
     <t>506452360</t>
   </si>
   <si>
-    <t>MARIA SEVERINA DA SILVA</t>
-  </si>
-  <si>
-    <t>348875939</t>
-  </si>
-  <si>
     <t>MARIA ENOI DA CONCEICAO</t>
   </si>
   <si>
@@ -662,12 +611,6 @@
     <t>4403528</t>
   </si>
   <si>
-    <t>PALOMA DE JESUS SANTOS</t>
-  </si>
-  <si>
-    <t>546925261</t>
-  </si>
-  <si>
     <t>PALOMA LUCIA DOS SANTOS</t>
   </si>
   <si>
@@ -704,12 +647,6 @@
     <t>140227891</t>
   </si>
   <si>
-    <t>EDNA CONCEICAO PEREIRA DOS SANTOS</t>
-  </si>
-  <si>
-    <t>369400835</t>
-  </si>
-  <si>
     <t>PERLA DA CONCEIÇAO DE LIMA COSTA</t>
   </si>
   <si>
@@ -764,12 +701,6 @@
     <t>369482992</t>
   </si>
   <si>
-    <t>RITA DE CASSIA JESUS</t>
-  </si>
-  <si>
-    <t>24584739</t>
-  </si>
-  <si>
     <t>RAQUEL DE SOUSA LEAL</t>
   </si>
   <si>
@@ -818,12 +749,6 @@
     <t>356802759</t>
   </si>
   <si>
-    <t>SILEDI MARIA ALVES DOS SANTOS</t>
-  </si>
-  <si>
-    <t>47279887X</t>
-  </si>
-  <si>
     <t>TAIS SANTOS DE MEIRA</t>
   </si>
   <si>
@@ -842,15 +767,6 @@
     <t>531568891</t>
   </si>
   <si>
-    <t>THAYNARA ALVES MOURA</t>
-  </si>
-  <si>
-    <t>601965826</t>
-  </si>
-  <si>
-    <t>RECEPCIONISTA</t>
-  </si>
-  <si>
     <t>TAMIRES STEFANI SOUSA SILVA</t>
   </si>
   <si>
@@ -902,22 +818,199 @@
     <t>473236576</t>
   </si>
   <si>
-    <t>VANUZA MADALENA DE SOUZA</t>
-  </si>
-  <si>
-    <t>256656575</t>
-  </si>
-  <si>
     <t>VERONICA FRANCISCA DA SILVA</t>
   </si>
   <si>
-    <t>1989045413</t>
-  </si>
-  <si>
     <t>ZILDINEI DIAS LIMA</t>
   </si>
   <si>
     <t>203097075</t>
+  </si>
+  <si>
+    <t>ROSELI ACIOLY DA SILVA</t>
+  </si>
+  <si>
+    <t>321538249</t>
+  </si>
+  <si>
+    <t>ALESSANDRA OLIVEIRA DE SOUSA</t>
+  </si>
+  <si>
+    <t>ALINE CRISTINA SOARES</t>
+  </si>
+  <si>
+    <t>425656676</t>
+  </si>
+  <si>
+    <t>ZENAIDE ALVES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>601801817</t>
+  </si>
+  <si>
+    <t>ANA LUCIA DE PAULA</t>
+  </si>
+  <si>
+    <t>322056457</t>
+  </si>
+  <si>
+    <t>ANGELA NOVAIS DOS SANTOS</t>
+  </si>
+  <si>
+    <t>698648663</t>
+  </si>
+  <si>
+    <t>DANIELA APARECIDA DE SOUZA</t>
+  </si>
+  <si>
+    <t>444875219</t>
+  </si>
+  <si>
+    <t>DAYANA ALVES DE MOURA SALES</t>
+  </si>
+  <si>
+    <t>585648487</t>
+  </si>
+  <si>
+    <t>EDILAINE CRISTINA SIQUEIRA</t>
+  </si>
+  <si>
+    <t>337860014</t>
+  </si>
+  <si>
+    <t>0707840864</t>
+  </si>
+  <si>
+    <t>JESSICA SEGGER DA COSTA</t>
+  </si>
+  <si>
+    <t>A10016767607</t>
+  </si>
+  <si>
+    <t>03649141140</t>
+  </si>
+  <si>
+    <t>09118520693</t>
+  </si>
+  <si>
+    <t>GLAUCIA PEREIRA SANTOS MAIA</t>
+  </si>
+  <si>
+    <t>418551327</t>
+  </si>
+  <si>
+    <t>GLAUCIA VIDA SOUZA LIMA</t>
+  </si>
+  <si>
+    <t>523345665</t>
+  </si>
+  <si>
+    <t>MARIA HELENA ALVES MIRANDA</t>
+  </si>
+  <si>
+    <t>685566109</t>
+  </si>
+  <si>
+    <t>IZABEL CRISTINA DA SILVA</t>
+  </si>
+  <si>
+    <t>241735944</t>
+  </si>
+  <si>
+    <t>JANETE MARIA DA SILVA</t>
+  </si>
+  <si>
+    <t>271355116</t>
+  </si>
+  <si>
+    <t>ASSISTENTE ADMINISTRATIVA NÍVEL III</t>
+  </si>
+  <si>
+    <t>LUANA CARVALHO PAULINO</t>
+  </si>
+  <si>
+    <t>538987996</t>
+  </si>
+  <si>
+    <t>MARCELA LUISA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>441257938</t>
+  </si>
+  <si>
+    <t>MARIA DO AMPARO DA SILVA</t>
+  </si>
+  <si>
+    <t>462892220</t>
+  </si>
+  <si>
+    <t>MARIA DE LOURDES PEREIRA</t>
+  </si>
+  <si>
+    <t>15872052</t>
+  </si>
+  <si>
+    <t>MARTA BRITO NERY DUARTE</t>
+  </si>
+  <si>
+    <t>07177611266</t>
+  </si>
+  <si>
+    <t>PATRICIA PEDRO BATISTA  DA SILVA</t>
+  </si>
+  <si>
+    <t>214120314</t>
+  </si>
+  <si>
+    <t>QUITERIA BARBOSA DA SILVA</t>
+  </si>
+  <si>
+    <t>209765689</t>
+  </si>
+  <si>
+    <t>RAFAELA SOUZA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>491428649</t>
+  </si>
+  <si>
+    <t>RAQUEL FERREIRA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>387643655</t>
+  </si>
+  <si>
+    <t>SANDRA DE ARAUJO VIANA</t>
+  </si>
+  <si>
+    <t>424598139</t>
+  </si>
+  <si>
+    <t>JOSENILTON JOSE DA SILVA</t>
+  </si>
+  <si>
+    <t>413346511</t>
+  </si>
+  <si>
+    <t>SIRLEI CORDEIRO FERREIRA</t>
+  </si>
+  <si>
+    <t>163548699</t>
+  </si>
+  <si>
+    <t>TERESINHA AZEVEDO DE LIMA</t>
+  </si>
+  <si>
+    <t>548287983</t>
+  </si>
+  <si>
+    <t>01989045413</t>
+  </si>
+  <si>
+    <t>LAIANE VITORIA DA SILVA</t>
+  </si>
+  <si>
+    <t>55204450874</t>
   </si>
 </sst>
 </file>
@@ -933,15 +1026,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -949,13 +1054,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1290,10 +1408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6EC4D0-50B4-44E0-9E41-1F6617FA6B7E}">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62:F65"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="G133" sqref="G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1336,28 +1454,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>55770559896</v>
+        <v>26733989883</v>
       </c>
       <c r="B2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2">
+        <v>5299</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>5294</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1">
-        <v>45995</v>
+        <v>46009</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -1365,3379 +1483,3795 @@
         <v>34452840833</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>5176</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1">
         <v>45590</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>39638343826</v>
+        <v>37109778860</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
+        <v>264</v>
+      </c>
+      <c r="C4">
+        <v>10012896278</v>
       </c>
       <c r="D4">
-        <v>5028</v>
+        <v>5323</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1">
-        <v>45229</v>
+        <v>46048</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>96477148315</v>
+        <v>39638343826</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>5286</v>
+        <v>5028</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1">
-        <v>45964</v>
+        <v>45229</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>38101123806</v>
+        <v>41108802893</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>265</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>266</v>
       </c>
       <c r="D6">
-        <v>5114</v>
+        <v>5308</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1">
-        <v>45432</v>
+        <v>46032</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>28207430800</v>
+        <v>22988968870</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>267</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>268</v>
       </c>
       <c r="D7">
-        <v>5235</v>
+        <v>5324</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1">
-        <v>45784</v>
+        <v>46048</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>12984879864</v>
+        <v>25306657885</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>269</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>270</v>
       </c>
       <c r="D8">
-        <v>5113</v>
+        <v>5322</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1">
-        <v>45427</v>
+        <v>46048</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>92408842387</v>
+        <v>96477148315</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>5019</v>
+        <v>5286</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1">
-        <v>45218</v>
+        <v>45964</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>3271959404</v>
+        <v>38101123806</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>4031</v>
+        <v>5114</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1">
-        <v>42095</v>
+        <v>45432</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>34345177820</v>
+        <v>10109085531</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>271</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>272</v>
       </c>
       <c r="D11">
-        <v>4563</v>
+        <v>5327</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1">
-        <v>43637</v>
+        <v>46055</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>36184093894</v>
+        <v>53924735808</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c r="D12">
-        <v>5273</v>
+        <v>4703</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G12" s="1">
-        <v>45915</v>
+        <v>44229</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>32586794877</v>
+        <v>28207430800</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>5123</v>
+        <v>5235</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G13" s="1">
-        <v>45453</v>
+        <v>45784</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>50931072808</v>
+        <v>12984879864</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>5257</v>
+        <v>5113</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G14" s="1">
-        <v>45840</v>
+        <v>45427</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>35558461837</v>
+        <v>92408842387</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>4863</v>
+        <v>5019</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1">
-        <v>44714</v>
+        <v>45218</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>8213123832</v>
+        <v>3271959404</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>4734</v>
+        <v>4031</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1">
-        <v>44368</v>
+        <v>42095</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>17612402858</v>
+        <v>34345177820</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>5277</v>
+        <v>4563</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1">
-        <v>45919</v>
+        <v>43637</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>11624083838</v>
+        <v>36184093894</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>3908</v>
+        <v>5273</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G18" s="1">
-        <v>41985</v>
+        <v>45915</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>28921350870</v>
+        <v>32586794877</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D19">
-        <v>5160</v>
+        <v>5123</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G19" s="1">
-        <v>45544</v>
+        <v>45453</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>67151043449</v>
+        <v>50931072808</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>5008</v>
+        <v>5257</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G20" s="1">
-        <v>45170</v>
+        <v>45840</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>37422643897</v>
+        <v>8213123832</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D21">
-        <v>4558</v>
+        <v>4734</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G21" s="1">
-        <v>43634</v>
+        <v>44368</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>14493353813</v>
+        <v>17612402858</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D22">
-        <v>4262</v>
+        <v>5277</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G22" s="1">
-        <v>42376</v>
+        <v>45919</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>28246116851</v>
+        <v>11624083838</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D23">
-        <v>5182</v>
+        <v>3908</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G23" s="1">
-        <v>45615</v>
+        <v>41985</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>4080520409</v>
+        <v>28921350870</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D24">
-        <v>5053</v>
+        <v>5160</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G24" s="1">
-        <v>45282</v>
+        <v>45544</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>27711154844</v>
+        <v>67151043449</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D25">
-        <v>4908</v>
+        <v>5008</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G25" s="1">
-        <v>44861</v>
+        <v>45170</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>17516213837</v>
+        <v>37422643897</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D26">
-        <v>4007</v>
+        <v>4558</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G26" s="1">
-        <v>42083</v>
+        <v>43634</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>5550010836</v>
+        <v>14493353813</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D27">
-        <v>4561</v>
+        <v>4262</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G27" s="1">
-        <v>43634</v>
+        <v>42376</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>11857171888</v>
+        <v>39801878886</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>273</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>274</v>
       </c>
       <c r="D28">
-        <v>4340</v>
+        <v>5315</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G28" s="1">
-        <v>42738</v>
+        <v>46038</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>14683979829</v>
+        <v>54547588848</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>276</v>
       </c>
       <c r="D29">
-        <v>3230</v>
+        <v>5305</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G29" s="1">
-        <v>41395</v>
+        <v>46024</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>80638465320</v>
+        <v>28246116851</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D30">
-        <v>4904</v>
+        <v>5182</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="G30" s="1">
-        <v>44858</v>
+        <v>45615</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>34159085857</v>
+        <v>33371201805</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="D31">
-        <v>5262</v>
+        <v>5320</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G31" s="1">
-        <v>45870</v>
+        <v>46046</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>81876980478</v>
+        <v>4080520409</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D32">
-        <v>5295</v>
+        <v>5053</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G32" s="1">
-        <v>45999</v>
+        <v>45282</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>97374946520</v>
+        <v>27711154844</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D33">
-        <v>5043</v>
+        <v>4908</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G33" s="1">
-        <v>45259</v>
+        <v>44861</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>28964235835</v>
+        <v>17516213837</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D34">
-        <v>5175</v>
+        <v>4007</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="G34" s="1">
-        <v>45584</v>
+        <v>42083</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>38608750864</v>
+        <v>5550010836</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D35">
-        <v>4618</v>
+        <v>4561</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G35" s="1">
-        <v>43880</v>
+        <v>43634</v>
       </c>
       <c r="H35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>89838742600</v>
+        <v>11857171888</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D36">
-        <v>5082</v>
+        <v>4340</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G36" s="1">
-        <v>45356</v>
+        <v>42738</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>55295444368</v>
+        <v>14683979829</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D37">
-        <v>4390</v>
+        <v>3230</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G37" s="1">
-        <v>42907</v>
+        <v>41395</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>49683675387</v>
+        <v>81876980478</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D38">
-        <v>3727</v>
+        <v>5295</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G38" s="1">
-        <v>41836</v>
+        <v>45999</v>
       </c>
       <c r="H38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>3649141140</v>
+        <v>97374946520</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>279</v>
       </c>
       <c r="D39">
-        <v>5274</v>
+        <v>5043</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G39" s="1">
-        <v>45916</v>
+        <v>45259</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>49406072831</v>
+        <v>34624372832</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>280</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>281</v>
       </c>
       <c r="D40">
-        <v>4957</v>
+        <v>5328</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G40" s="1">
-        <v>45042</v>
+        <v>46058</v>
       </c>
       <c r="H40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>50068907893</v>
+        <v>28964235835</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D41">
-        <v>5130</v>
+        <v>5175</v>
       </c>
       <c r="E41" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="G41" s="1">
-        <v>45467</v>
+        <v>45584</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>9118520693</v>
+        <v>38608750864</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D42">
-        <v>5272</v>
+        <v>4618</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G42" s="1">
-        <v>45915</v>
+        <v>43880</v>
       </c>
       <c r="H42" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>38002342895</v>
+        <v>89838742600</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D43">
-        <v>4111</v>
+        <v>5082</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G43" s="1">
-        <v>42160</v>
+        <v>45356</v>
       </c>
       <c r="H43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>35651225870</v>
+        <v>55295444368</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D44">
-        <v>5151</v>
+        <v>4390</v>
       </c>
       <c r="E44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G44" s="1">
-        <v>45513</v>
+        <v>42907</v>
       </c>
       <c r="H44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>36134570591</v>
+        <v>49683675387</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D45">
-        <v>4683</v>
+        <v>3727</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G45" s="1">
-        <v>44160</v>
+        <v>41836</v>
       </c>
       <c r="H45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>8601245846</v>
+        <v>3649141140</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>282</v>
       </c>
       <c r="D46">
-        <v>3358</v>
+        <v>5274</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G46" s="1">
-        <v>41481</v>
+        <v>45916</v>
       </c>
       <c r="H46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>8427379790</v>
+        <v>49406072831</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D47">
-        <v>4739</v>
+        <v>4957</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G47" s="1">
-        <v>44390</v>
+        <v>45042</v>
       </c>
       <c r="H47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>39350513870</v>
+        <v>50068907893</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="D48">
-        <v>5260</v>
+        <v>5130</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G48" s="1">
-        <v>45870</v>
+        <v>45467</v>
       </c>
       <c r="H48" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>1654081540</v>
+        <v>9118520693</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>283</v>
       </c>
       <c r="D49">
-        <v>4509</v>
+        <v>5272</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G49" s="1">
-        <v>43472</v>
+        <v>45915</v>
       </c>
       <c r="H49" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>4037263360</v>
+        <v>22860828800</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>284</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>285</v>
       </c>
       <c r="D50">
-        <v>5117</v>
+        <v>5321</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G50" s="1">
-        <v>45439</v>
+        <v>46046</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>37072155805</v>
+        <v>45229340843</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>286</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>287</v>
       </c>
       <c r="D51">
-        <v>3014</v>
+        <v>5310</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G51" s="1">
-        <v>41253</v>
+        <v>46032</v>
       </c>
       <c r="H51" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>35819631838</v>
+        <v>38002342895</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="D52">
-        <v>5247</v>
+        <v>4111</v>
       </c>
       <c r="E52" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F52" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="G52" s="1">
-        <v>45810</v>
+        <v>42160</v>
       </c>
       <c r="H52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>30019539851</v>
+        <v>61049062302</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>288</v>
       </c>
       <c r="C53" t="s">
-        <v>126</v>
+        <v>289</v>
       </c>
       <c r="D53">
-        <v>5197</v>
+        <v>5301</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G53" s="1">
-        <v>45297</v>
+        <v>46013</v>
       </c>
       <c r="H53" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>37055663857</v>
+        <v>35651225870</v>
       </c>
       <c r="B54" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="D54">
-        <v>4640</v>
+        <v>5151</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G54" s="1">
-        <v>43995</v>
+        <v>45513</v>
       </c>
       <c r="H54" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>36042891812</v>
+        <v>36134570591</v>
       </c>
       <c r="B55" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D55">
-        <v>3709</v>
+        <v>4683</v>
       </c>
       <c r="E55" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G55" s="1">
-        <v>41806</v>
+        <v>44160</v>
       </c>
       <c r="H55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>34470647810</v>
+        <v>8601245846</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="D56">
-        <v>5255</v>
+        <v>3358</v>
       </c>
       <c r="E56" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G56" s="1">
-        <v>45839</v>
+        <v>41481</v>
       </c>
       <c r="H56" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>51572980800</v>
+        <v>8427379790</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C57" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="D57">
-        <v>5051</v>
+        <v>4739</v>
       </c>
       <c r="E57" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G57" s="1">
-        <v>45274</v>
+        <v>44390</v>
       </c>
       <c r="H57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>47941095807</v>
+        <v>39350513870</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="D58">
-        <v>5266</v>
+        <v>5260</v>
       </c>
       <c r="E58" t="s">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G58" s="1">
-        <v>45898</v>
+        <v>45870</v>
       </c>
       <c r="H58" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>1094601543</v>
+        <v>1654081540</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C59" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D59">
-        <v>5239</v>
+        <v>4509</v>
       </c>
       <c r="E59" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G59" s="1">
-        <v>45790</v>
+        <v>43472</v>
       </c>
       <c r="H59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>13010210833</v>
+        <v>4037263360</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="D60">
-        <v>3874</v>
+        <v>5117</v>
       </c>
       <c r="E60" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G60" s="1">
-        <v>41956</v>
+        <v>45439</v>
       </c>
       <c r="H60" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>39289292830</v>
+        <v>19738272807</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>290</v>
       </c>
       <c r="C61" t="s">
-        <v>144</v>
+        <v>291</v>
       </c>
       <c r="D61">
-        <v>4886</v>
+        <v>5303</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G61" s="1">
-        <v>44803</v>
+        <v>46017</v>
       </c>
       <c r="H61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>81771304553</v>
+        <v>37072155805</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="C62" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="D62">
-        <v>5157</v>
+        <v>3014</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G62" s="1">
-        <v>45537</v>
+        <v>41253</v>
       </c>
       <c r="H62" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>34510062869</v>
+        <v>35819631838</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="D63">
-        <v>5283</v>
+        <v>5247</v>
       </c>
       <c r="E63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="G63" s="1">
-        <v>45952</v>
+        <v>45810</v>
       </c>
       <c r="H63" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>23665285828</v>
+        <v>30019539851</v>
       </c>
       <c r="B64" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="C64" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="D64">
-        <v>5108</v>
+        <v>5197</v>
       </c>
       <c r="E64" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G64" s="1">
-        <v>45418</v>
+        <v>45297</v>
       </c>
       <c r="H64" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>42803323800</v>
+        <v>37055663857</v>
       </c>
       <c r="B65" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="C65" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="D65">
-        <v>5296</v>
+        <v>4640</v>
       </c>
       <c r="E65" t="s">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G65" s="1">
-        <v>46002</v>
+        <v>43995</v>
       </c>
       <c r="H65" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>50267606869</v>
+        <v>36042891812</v>
       </c>
       <c r="B66" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="C66" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="D66">
-        <v>5078</v>
+        <v>3709</v>
       </c>
       <c r="E66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G66" s="1">
-        <v>45337</v>
+        <v>41806</v>
       </c>
       <c r="H66" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>21709216808</v>
+        <v>34470647810</v>
       </c>
       <c r="B67" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="C67" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="D67">
-        <v>5289</v>
+        <v>5255</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G67" s="1">
-        <v>45965</v>
+        <v>45839</v>
       </c>
       <c r="H67" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>17851115825</v>
+        <v>18478159878</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>292</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>293</v>
       </c>
       <c r="D68">
-        <v>5150</v>
+        <v>5311</v>
       </c>
       <c r="E68" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="G68" s="1">
-        <v>45512</v>
+        <v>46034</v>
       </c>
       <c r="H68" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>70059180293</v>
+        <v>51572980800</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="D69">
-        <v>4668</v>
+        <v>5051</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G69" s="1">
-        <v>44089</v>
+        <v>45274</v>
       </c>
       <c r="H69" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>2260394558</v>
+        <v>47941095807</v>
       </c>
       <c r="B70" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="C70" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="D70">
-        <v>4935</v>
+        <v>5266</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G70" s="1">
-        <v>44966</v>
+        <v>45898</v>
       </c>
       <c r="H70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>34089460867</v>
+        <v>1094601543</v>
       </c>
       <c r="B71" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="C71" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="D71">
-        <v>4464</v>
+        <v>5239</v>
       </c>
       <c r="E71" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G71" s="1">
-        <v>43256</v>
+        <v>45790</v>
       </c>
       <c r="H71" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>39671656803</v>
+        <v>13010210833</v>
       </c>
       <c r="B72" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="C72" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="D72">
-        <v>5137</v>
+        <v>3874</v>
       </c>
       <c r="E72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G72" s="1">
-        <v>45474</v>
+        <v>41956</v>
       </c>
       <c r="H72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>38839132864</v>
+        <v>39289292830</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="C73" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="D73">
-        <v>4858</v>
+        <v>4886</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G73" s="1">
-        <v>44708</v>
+        <v>44803</v>
       </c>
       <c r="H73" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>37452995821</v>
+        <v>81771304553</v>
       </c>
       <c r="B74" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="C74" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="D74">
-        <v>5227</v>
+        <v>5157</v>
       </c>
       <c r="E74" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G74" s="1">
-        <v>45748</v>
+        <v>45537</v>
       </c>
       <c r="H74" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>23151577814</v>
+        <v>34510062869</v>
       </c>
       <c r="B75" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="C75" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="D75">
-        <v>5236</v>
+        <v>5283</v>
       </c>
       <c r="E75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="G75" s="1">
-        <v>45789</v>
+        <v>45952</v>
       </c>
       <c r="H75" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>22724822870</v>
+        <v>23665285828</v>
       </c>
       <c r="B76" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="C76" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="D76">
-        <v>4820</v>
+        <v>5108</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>294</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G76" s="1">
-        <v>44623</v>
+        <v>45418</v>
       </c>
       <c r="H76" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>37476909801</v>
+        <v>42803323800</v>
       </c>
       <c r="B77" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="C77" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="D77">
-        <v>4794</v>
+        <v>5296</v>
       </c>
       <c r="E77" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G77" s="1">
-        <v>44567</v>
+        <v>46002</v>
       </c>
       <c r="H77" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>14268982825</v>
+        <v>50267606869</v>
       </c>
       <c r="B78" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="C78" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="D78">
-        <v>4300</v>
+        <v>5078</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G78" s="1">
-        <v>42590</v>
+        <v>45337</v>
       </c>
       <c r="H78" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>32637414898</v>
+        <v>17851115825</v>
       </c>
       <c r="B79" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="C79" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="D79">
-        <v>2063</v>
+        <v>5150</v>
       </c>
       <c r="E79" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="G79" s="1">
-        <v>40375</v>
+        <v>45512</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>28569026854</v>
+        <v>70059180293</v>
       </c>
       <c r="B80" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="C80" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="D80">
-        <v>4945</v>
+        <v>4668</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G80" s="1">
-        <v>45002</v>
+        <v>44089</v>
       </c>
       <c r="H80" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>93596138353</v>
+        <v>2260394558</v>
       </c>
       <c r="B81" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="C81" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="D81">
-        <v>3528</v>
+        <v>4935</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G81" s="1">
-        <v>41643</v>
+        <v>44966</v>
       </c>
       <c r="H81" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>9215734562</v>
+        <v>34089460867</v>
       </c>
       <c r="B82" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="C82" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="D82">
-        <v>4994</v>
+        <v>4464</v>
       </c>
       <c r="E82" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G82" s="1">
-        <v>45173</v>
+        <v>43256</v>
       </c>
       <c r="H82" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>52794279858</v>
+        <v>38839132864</v>
       </c>
       <c r="B83" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="C83" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="D83">
-        <v>5251</v>
+        <v>4858</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G83" s="1">
-        <v>45818</v>
+        <v>44708</v>
       </c>
       <c r="H83" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>25185025808</v>
+        <v>37452995821</v>
       </c>
       <c r="B84" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="C84" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="D84">
-        <v>4838</v>
+        <v>5227</v>
       </c>
       <c r="E84" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G84" s="1">
-        <v>44657</v>
+        <v>45748</v>
       </c>
       <c r="H84" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>22273076843</v>
+        <v>42299010890</v>
       </c>
       <c r="B85" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="C85" t="s">
-        <v>194</v>
+        <v>296</v>
       </c>
       <c r="D85">
-        <v>5181</v>
+        <v>5307</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G85" s="1">
-        <v>45610</v>
+        <v>46030</v>
       </c>
       <c r="H85" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>3234566348</v>
+        <v>23151577814</v>
       </c>
       <c r="B86" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="C86" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="D86">
-        <v>4369</v>
+        <v>5236</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="G86" s="1">
-        <v>42816</v>
+        <v>45789</v>
       </c>
       <c r="H86" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>42869494866</v>
+        <v>32441450867</v>
       </c>
       <c r="B87" t="s">
-        <v>197</v>
+        <v>297</v>
       </c>
       <c r="C87" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="D87">
-        <v>5259</v>
+        <v>5326</v>
       </c>
       <c r="E87" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G87" s="1">
-        <v>45861</v>
+        <v>46051</v>
       </c>
       <c r="H87" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>38710134808</v>
+        <v>22724822870</v>
       </c>
       <c r="B88" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="C88" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="D88">
-        <v>4841</v>
+        <v>4820</v>
       </c>
       <c r="E88" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G88" s="1">
-        <v>44665</v>
+        <v>44623</v>
       </c>
       <c r="H88" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>85163945572</v>
+        <v>37476909801</v>
       </c>
       <c r="B89" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="C89" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="D89">
-        <v>4039</v>
+        <v>4794</v>
       </c>
       <c r="E89" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G89" s="1">
-        <v>42100</v>
+        <v>44567</v>
       </c>
       <c r="H89" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>75796643304</v>
+        <v>14268982825</v>
       </c>
       <c r="B90" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="C90" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="D90">
-        <v>1221</v>
+        <v>4300</v>
       </c>
       <c r="E90" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G90" s="1">
-        <v>39247</v>
+        <v>42590</v>
       </c>
       <c r="H90" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>13425586424</v>
+        <v>32637414898</v>
       </c>
       <c r="B91" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="C91" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="D91">
-        <v>4896</v>
+        <v>2063</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G91" s="1">
-        <v>44826</v>
+        <v>40375</v>
       </c>
       <c r="H91" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>50892454873</v>
+        <v>37632711805</v>
       </c>
       <c r="B92" t="s">
-        <v>207</v>
+        <v>299</v>
       </c>
       <c r="C92" t="s">
-        <v>208</v>
+        <v>300</v>
       </c>
       <c r="D92">
-        <v>5284</v>
+        <v>5309</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G92" s="1">
-        <v>45954</v>
+        <v>46028</v>
       </c>
       <c r="H92" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>42624430865</v>
+        <v>93596138353</v>
       </c>
       <c r="B93" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="C93" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="D93">
-        <v>5290</v>
+        <v>3528</v>
       </c>
       <c r="E93" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G93" s="1">
-        <v>45971</v>
+        <v>41643</v>
       </c>
       <c r="H93" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>37276009858</v>
+        <v>9215734562</v>
       </c>
       <c r="B94" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="C94" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="D94">
-        <v>3811</v>
+        <v>4994</v>
       </c>
       <c r="E94" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G94" s="1">
-        <v>41911</v>
+        <v>45173</v>
       </c>
       <c r="H94" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>46766702818</v>
+        <v>4056194645</v>
       </c>
       <c r="B95" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="C95" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="D95">
-        <v>5201</v>
+        <v>5298</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G95" s="1">
-        <v>45673</v>
+        <v>46020</v>
       </c>
       <c r="H95" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>31034338838</v>
+        <v>52794279858</v>
       </c>
       <c r="B96" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="C96" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="D96">
-        <v>5285</v>
+        <v>5251</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G96" s="1">
-        <v>45957</v>
+        <v>45818</v>
       </c>
       <c r="H96" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>12433103835</v>
+        <v>25185025808</v>
       </c>
       <c r="B97" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="C97" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="D97">
-        <v>4837</v>
+        <v>4838</v>
       </c>
       <c r="E97" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="G97" s="1">
-        <v>44655</v>
+        <v>44657</v>
       </c>
       <c r="H97" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>5717814895</v>
+        <v>22273076843</v>
       </c>
       <c r="B98" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="C98" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="D98">
-        <v>5293</v>
+        <v>5181</v>
       </c>
       <c r="E98" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G98" s="1">
-        <v>45978</v>
+        <v>45610</v>
       </c>
       <c r="H98" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99">
-        <v>33520541858</v>
+        <v>3234566348</v>
       </c>
       <c r="B99" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="C99" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
       <c r="D99">
-        <v>5288</v>
+        <v>4369</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G99" s="1">
-        <v>45962</v>
+        <v>42816</v>
       </c>
       <c r="H99" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100">
-        <v>66484120200</v>
+        <v>14855531804</v>
       </c>
       <c r="B100" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="C100" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="D100">
-        <v>5054</v>
+        <v>5319</v>
       </c>
       <c r="E100" t="s">
-        <v>225</v>
+        <v>8</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G100" s="1">
-        <v>45288</v>
+        <v>46044</v>
       </c>
       <c r="H100" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101">
-        <v>37266168880</v>
+        <v>42869494866</v>
       </c>
       <c r="B101" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="C101" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="D101">
-        <v>5138</v>
+        <v>5259</v>
       </c>
       <c r="E101" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G101" s="1">
-        <v>45477</v>
+        <v>45861</v>
       </c>
       <c r="H101" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102">
-        <v>2210148456</v>
+        <v>38710134808</v>
       </c>
       <c r="B102" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="C102" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="D102">
-        <v>236</v>
+        <v>4841</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G102" s="1">
-        <v>36647</v>
+        <v>44665</v>
       </c>
       <c r="H102" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103">
-        <v>22944943855</v>
+        <v>85163945572</v>
       </c>
       <c r="B103" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="C103" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="D103">
-        <v>5279</v>
+        <v>4039</v>
       </c>
       <c r="E103" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G103" s="1">
-        <v>45937</v>
+        <v>42100</v>
       </c>
       <c r="H103" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104">
-        <v>46330560854</v>
+        <v>75796643304</v>
       </c>
       <c r="B104" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="C104" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="D104">
-        <v>5203</v>
+        <v>1221</v>
       </c>
       <c r="E104" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G104" s="1">
-        <v>45678</v>
+        <v>39247</v>
       </c>
       <c r="H104" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105">
-        <v>33552763830</v>
+        <v>13425586424</v>
       </c>
       <c r="B105" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="C105" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="D105">
-        <v>5208</v>
+        <v>4896</v>
       </c>
       <c r="E105" t="s">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G105" s="1">
-        <v>45685</v>
+        <v>44826</v>
       </c>
       <c r="H105" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106">
-        <v>23614327817</v>
+        <v>42624430865</v>
       </c>
       <c r="B106" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="C106" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="D106">
-        <v>3951</v>
+        <v>5290</v>
       </c>
       <c r="E106" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G106" s="1">
-        <v>42031</v>
+        <v>45971</v>
       </c>
       <c r="H106" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107">
-        <v>75728176453</v>
+        <v>37276009858</v>
       </c>
       <c r="B107" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="C107" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="D107">
-        <v>1499</v>
+        <v>3811</v>
       </c>
       <c r="E107" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G107" s="1">
-        <v>39676</v>
+        <v>41911</v>
       </c>
       <c r="H107" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108">
-        <v>14290656803</v>
+        <v>46766702818</v>
       </c>
       <c r="B108" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="C108" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="D108">
-        <v>5252</v>
+        <v>5201</v>
       </c>
       <c r="E108" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G108" s="1">
-        <v>45819</v>
+        <v>45673</v>
       </c>
       <c r="H108" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109">
-        <v>34886461816</v>
+        <v>14905764874</v>
       </c>
       <c r="B109" t="s">
-        <v>243</v>
+        <v>305</v>
       </c>
       <c r="C109" t="s">
-        <v>244</v>
+        <v>306</v>
       </c>
       <c r="D109">
-        <v>4581</v>
+        <v>5297</v>
       </c>
       <c r="E109" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G109" s="1">
-        <v>43691</v>
+        <v>46008</v>
       </c>
       <c r="H109" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110">
-        <v>88528006468</v>
+        <v>31034338838</v>
       </c>
       <c r="B110" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="C110" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="D110">
-        <v>4433</v>
+        <v>5285</v>
       </c>
       <c r="E110" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G110" s="1">
-        <v>43139</v>
+        <v>45957</v>
       </c>
       <c r="H110" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A111">
-        <v>59158084843</v>
+        <v>12433103835</v>
       </c>
       <c r="B111" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="C111" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="D111">
-        <v>5287</v>
+        <v>4837</v>
       </c>
       <c r="E111" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="G111" s="1">
-        <v>45964</v>
+        <v>44655</v>
       </c>
       <c r="H111" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A112">
-        <v>14788847892</v>
+        <v>5717814895</v>
       </c>
       <c r="B112" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="C112" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="D112">
-        <v>5139</v>
+        <v>5293</v>
       </c>
       <c r="E112" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G112" s="1">
-        <v>45485</v>
+        <v>45978</v>
       </c>
       <c r="H112" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A113">
-        <v>31563349876</v>
+        <v>66484120200</v>
       </c>
       <c r="B113" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="C113" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="D113">
-        <v>4902</v>
+        <v>5054</v>
       </c>
       <c r="E113" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G113" s="1">
-        <v>44851</v>
+        <v>45288</v>
       </c>
       <c r="H113" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A114">
-        <v>33084557810</v>
+        <v>37266168880</v>
       </c>
       <c r="B114" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="C114" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="D114">
-        <v>5127</v>
+        <v>5138</v>
       </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G114" s="1">
-        <v>45457</v>
+        <v>45477</v>
       </c>
       <c r="H114" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A115">
-        <v>8109557414</v>
+        <v>13624700820</v>
       </c>
       <c r="B115" t="s">
-        <v>255</v>
+        <v>307</v>
       </c>
       <c r="C115" t="s">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="D115">
-        <v>4530</v>
+        <v>4751</v>
       </c>
       <c r="E115" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G115" s="1">
-        <v>43542</v>
+        <v>44413</v>
       </c>
       <c r="H115" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116">
-        <v>28138259809</v>
+        <v>2210148456</v>
       </c>
       <c r="B116" t="s">
-        <v>257</v>
+        <v>207</v>
       </c>
       <c r="C116" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="D116">
-        <v>4816</v>
+        <v>236</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F116" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G116" s="1">
-        <v>44615</v>
+        <v>36647</v>
       </c>
       <c r="H116" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A117">
-        <v>40846095874</v>
+        <v>39825114886</v>
       </c>
       <c r="B117" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="C117" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="D117">
-        <v>5292</v>
+        <v>5314</v>
       </c>
       <c r="E117" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G117" s="1">
-        <v>45971</v>
+        <v>46037</v>
       </c>
       <c r="H117" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A118">
-        <v>41888770813</v>
+        <v>40113090870</v>
       </c>
       <c r="B118" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="C118" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="D118">
-        <v>4950</v>
+        <v>5317</v>
       </c>
       <c r="E118" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G118" s="1">
-        <v>45016</v>
+        <v>46040</v>
       </c>
       <c r="H118" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A119">
-        <v>42200319878</v>
+        <v>22944943855</v>
       </c>
       <c r="B119" t="s">
-        <v>263</v>
+        <v>209</v>
       </c>
       <c r="C119" t="s">
-        <v>264</v>
+        <v>210</v>
       </c>
       <c r="D119">
-        <v>5144</v>
+        <v>5279</v>
       </c>
       <c r="E119" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G119" s="1">
-        <v>45505</v>
+        <v>45937</v>
       </c>
       <c r="H119" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120">
-        <v>45802269847</v>
+        <v>46330560854</v>
       </c>
       <c r="B120" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="C120" t="s">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="D120">
-        <v>4752</v>
+        <v>5203</v>
       </c>
       <c r="E120" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G120" s="1">
-        <v>44420</v>
+        <v>45678</v>
       </c>
       <c r="H120" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121">
-        <v>50442190883</v>
+        <v>33552763830</v>
       </c>
       <c r="B121" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="C121" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="D121">
-        <v>5084</v>
+        <v>5208</v>
       </c>
       <c r="E121" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G121" s="1">
-        <v>45364</v>
+        <v>45685</v>
       </c>
       <c r="H121" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122">
-        <v>39320001880</v>
+        <v>23614327817</v>
       </c>
       <c r="B122" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="C122" t="s">
-        <v>271</v>
+        <v>217</v>
       </c>
       <c r="D122">
-        <v>5232</v>
+        <v>3951</v>
       </c>
       <c r="E122" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G122" s="1">
-        <v>45779</v>
+        <v>42031</v>
       </c>
       <c r="H122" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A123">
-        <v>48065812830</v>
+        <v>75728176453</v>
       </c>
       <c r="B123" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="C123" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="D123">
-        <v>4895</v>
+        <v>1499</v>
       </c>
       <c r="E123" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F123" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G123" s="1">
-        <v>44824</v>
+        <v>39676</v>
       </c>
       <c r="H123" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A124">
-        <v>33940155870</v>
+        <v>34886461816</v>
       </c>
       <c r="B124" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="C124" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="D124">
-        <v>4906</v>
+        <v>4581</v>
       </c>
       <c r="E124" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G124" s="1">
-        <v>44858</v>
+        <v>43691</v>
       </c>
       <c r="H124" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A125">
-        <v>7674946606</v>
+        <v>88528006468</v>
       </c>
       <c r="B125" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="C125" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="D125">
-        <v>3435</v>
+        <v>4433</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G125" s="1">
-        <v>41548</v>
+        <v>43139</v>
       </c>
       <c r="H125" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126">
-        <v>36341415818</v>
+        <v>59158084843</v>
       </c>
       <c r="B126" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="C126" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="D126">
-        <v>4972</v>
+        <v>5287</v>
       </c>
       <c r="E126" t="s">
-        <v>280</v>
+        <v>13</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G126" s="1">
-        <v>45100</v>
+        <v>45964</v>
       </c>
       <c r="H126" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A127">
-        <v>25257017806</v>
+        <v>14788847892</v>
       </c>
       <c r="B127" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="C127" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="D127">
-        <v>3688</v>
+        <v>5139</v>
       </c>
       <c r="E127" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G127" s="1">
-        <v>41786</v>
+        <v>45485</v>
       </c>
       <c r="H127" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A128">
-        <v>53924735808</v>
+        <v>31563349876</v>
       </c>
       <c r="B128" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="C128" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="D128">
-        <v>4703</v>
+        <v>4902</v>
       </c>
       <c r="E128" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G128" s="1">
-        <v>44229</v>
+        <v>44851</v>
       </c>
       <c r="H128" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A129">
-        <v>40426954858</v>
+        <v>31342343867</v>
       </c>
       <c r="B129" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="C129" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="D129">
-        <v>4861</v>
+        <v>5316</v>
       </c>
       <c r="E129" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G129" s="1">
-        <v>44711</v>
+        <v>46038</v>
       </c>
       <c r="H129" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130">
-        <v>22406347826</v>
+        <v>33084557810</v>
       </c>
       <c r="B130" t="s">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="C130" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="D130">
-        <v>5256</v>
+        <v>5127</v>
       </c>
       <c r="E130" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G130" s="1">
-        <v>45839</v>
+        <v>45457</v>
       </c>
       <c r="H130" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131">
-        <v>1989045413</v>
+        <v>8109557414</v>
       </c>
       <c r="B131" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="C131" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="D131">
-        <v>5282</v>
+        <v>4530</v>
       </c>
       <c r="E131" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G131" s="1">
-        <v>45950</v>
+        <v>43542</v>
       </c>
       <c r="H131" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132">
+        <v>35643950839</v>
+      </c>
+      <c r="B132" t="s">
+        <v>315</v>
+      </c>
+      <c r="C132" t="s">
+        <v>316</v>
+      </c>
+      <c r="D132">
+        <v>5304</v>
+      </c>
+      <c r="E132" t="s">
+        <v>215</v>
+      </c>
+      <c r="F132" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" s="1">
+        <v>46024</v>
+      </c>
+      <c r="H132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>11479031828</v>
+      </c>
+      <c r="B133" t="s">
+        <v>317</v>
+      </c>
+      <c r="C133" t="s">
+        <v>318</v>
+      </c>
+      <c r="D133">
+        <v>5300</v>
+      </c>
+      <c r="E133" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133" s="2">
+        <v>46011</v>
+      </c>
+      <c r="H133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>28138259809</v>
+      </c>
+      <c r="B134" t="s">
+        <v>234</v>
+      </c>
+      <c r="C134" t="s">
+        <v>235</v>
+      </c>
+      <c r="D134">
+        <v>4816</v>
+      </c>
+      <c r="E134" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" t="s">
+        <v>24</v>
+      </c>
+      <c r="G134" s="3">
+        <v>44615</v>
+      </c>
+      <c r="H134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>41888770813</v>
+      </c>
+      <c r="B135" t="s">
+        <v>236</v>
+      </c>
+      <c r="C135" t="s">
+        <v>237</v>
+      </c>
+      <c r="D135">
+        <v>4950</v>
+      </c>
+      <c r="E135" t="s">
+        <v>140</v>
+      </c>
+      <c r="F135" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135" s="2">
+        <v>45016</v>
+      </c>
+      <c r="H135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>42200319878</v>
+      </c>
+      <c r="B136" t="s">
+        <v>238</v>
+      </c>
+      <c r="C136" t="s">
+        <v>239</v>
+      </c>
+      <c r="D136">
+        <v>5144</v>
+      </c>
+      <c r="E136" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" s="3">
+        <v>45505</v>
+      </c>
+      <c r="H136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>45802269847</v>
+      </c>
+      <c r="B137" t="s">
+        <v>240</v>
+      </c>
+      <c r="C137" t="s">
+        <v>241</v>
+      </c>
+      <c r="D137">
+        <v>4752</v>
+      </c>
+      <c r="E137" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" s="2">
+        <v>44420</v>
+      </c>
+      <c r="H137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <v>43406014895</v>
+      </c>
+      <c r="B138" t="s">
+        <v>319</v>
+      </c>
+      <c r="C138" t="s">
+        <v>320</v>
+      </c>
+      <c r="D138">
+        <v>5306</v>
+      </c>
+      <c r="E138" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" t="s">
+        <v>9</v>
+      </c>
+      <c r="G138" s="3">
+        <v>46027</v>
+      </c>
+      <c r="H138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>39320001880</v>
+      </c>
+      <c r="B139" t="s">
+        <v>242</v>
+      </c>
+      <c r="C139" t="s">
+        <v>243</v>
+      </c>
+      <c r="D139">
+        <v>5232</v>
+      </c>
+      <c r="E139" t="s">
+        <v>30</v>
+      </c>
+      <c r="F139" t="s">
+        <v>14</v>
+      </c>
+      <c r="G139" s="2">
+        <v>45779</v>
+      </c>
+      <c r="H139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>48065812830</v>
+      </c>
+      <c r="B140" t="s">
+        <v>244</v>
+      </c>
+      <c r="C140" t="s">
+        <v>245</v>
+      </c>
+      <c r="D140">
+        <v>4895</v>
+      </c>
+      <c r="E140" t="s">
+        <v>30</v>
+      </c>
+      <c r="F140" t="s">
+        <v>24</v>
+      </c>
+      <c r="G140" s="3">
+        <v>44824</v>
+      </c>
+      <c r="H140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>33940155870</v>
+      </c>
+      <c r="B141" t="s">
+        <v>246</v>
+      </c>
+      <c r="C141" t="s">
+        <v>247</v>
+      </c>
+      <c r="D141">
+        <v>4906</v>
+      </c>
+      <c r="E141" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" t="s">
+        <v>14</v>
+      </c>
+      <c r="G141" s="2">
+        <v>44858</v>
+      </c>
+      <c r="H141" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>7674946606</v>
+      </c>
+      <c r="B142" t="s">
+        <v>248</v>
+      </c>
+      <c r="C142" t="s">
+        <v>249</v>
+      </c>
+      <c r="D142">
+        <v>3435</v>
+      </c>
+      <c r="E142" t="s">
+        <v>30</v>
+      </c>
+      <c r="F142" t="s">
+        <v>14</v>
+      </c>
+      <c r="G142" s="3">
+        <v>41548</v>
+      </c>
+      <c r="H142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>36341415818</v>
+      </c>
+      <c r="B143" t="s">
+        <v>250</v>
+      </c>
+      <c r="C143" t="s">
+        <v>251</v>
+      </c>
+      <c r="D143">
+        <v>4972</v>
+      </c>
+      <c r="E143" t="s">
+        <v>252</v>
+      </c>
+      <c r="F143" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143" s="2">
+        <v>45100</v>
+      </c>
+      <c r="H143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>25257017806</v>
+      </c>
+      <c r="B144" t="s">
+        <v>253</v>
+      </c>
+      <c r="C144" t="s">
+        <v>254</v>
+      </c>
+      <c r="D144">
+        <v>3688</v>
+      </c>
+      <c r="E144" t="s">
+        <v>30</v>
+      </c>
+      <c r="F144" t="s">
+        <v>14</v>
+      </c>
+      <c r="G144" s="3">
+        <v>41786</v>
+      </c>
+      <c r="H144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>40426954858</v>
+      </c>
+      <c r="B145" t="s">
+        <v>257</v>
+      </c>
+      <c r="C145" t="s">
+        <v>258</v>
+      </c>
+      <c r="D145">
+        <v>4861</v>
+      </c>
+      <c r="E145" t="s">
+        <v>30</v>
+      </c>
+      <c r="F145" t="s">
+        <v>14</v>
+      </c>
+      <c r="G145" s="2">
+        <v>44711</v>
+      </c>
+      <c r="H145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>1989045413</v>
+      </c>
+      <c r="B146" t="s">
+        <v>259</v>
+      </c>
+      <c r="C146" t="s">
+        <v>321</v>
+      </c>
+      <c r="D146">
+        <v>5282</v>
+      </c>
+      <c r="E146" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146" s="3">
+        <v>45950</v>
+      </c>
+      <c r="H146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>55204450874</v>
+      </c>
+      <c r="B147" t="s">
+        <v>322</v>
+      </c>
+      <c r="C147" t="s">
+        <v>323</v>
+      </c>
+      <c r="D147">
+        <v>5325</v>
+      </c>
+      <c r="E147" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s">
+        <v>14</v>
+      </c>
+      <c r="G147" s="2">
+        <v>46049</v>
+      </c>
+      <c r="H147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A148">
         <v>12476259829</v>
       </c>
-      <c r="B132" t="s">
-        <v>291</v>
-      </c>
-      <c r="C132" t="s">
-        <v>292</v>
-      </c>
-      <c r="D132">
+      <c r="B148" t="s">
+        <v>260</v>
+      </c>
+      <c r="C148" t="s">
+        <v>261</v>
+      </c>
+      <c r="D148">
         <v>5242</v>
       </c>
-      <c r="E132" t="s">
-        <v>32</v>
-      </c>
-      <c r="F132" t="s">
-        <v>16</v>
-      </c>
-      <c r="G132" s="1">
+      <c r="E148" t="s">
+        <v>30</v>
+      </c>
+      <c r="F148" t="s">
+        <v>14</v>
+      </c>
+      <c r="G148" s="3">
         <v>45792</v>
       </c>
-      <c r="H132" t="s">
-        <v>12</v>
+      <c r="H148" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
